--- a/biology/Histoire de la zoologie et de la botanique/James_A._Murray/James_A._Murray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_A._Murray/James_A._Murray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James A. Murray est un zoologiste, directeur du Victoria Natural History Institute puis conservateur du muséum et de la bibliothèque de Karachi. Il est membre de la Natural History and Anthropological Societies.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Murray, J.A. (1890) The Avifauna of the Island of Ceylon. Bombay: Educational Society Press.
 Murray, J.A. (1889) The Edible and Game Birds of British India with its Dependencies and Ceylon. London: Trubner.
